--- a/Home Work 1- Formulation of LP Model.xlsx
+++ b/Home Work 1- Formulation of LP Model.xlsx
@@ -287,6 +287,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,41 +314,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,16 +353,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -377,8 +377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28574" y="66675"/>
-          <a:ext cx="11801475" cy="1447800"/>
+          <a:off x="619125" y="95250"/>
+          <a:ext cx="4743450" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3D811E-9D3C-4D4F-B4AD-4C7DB2A58347}">
-  <dimension ref="B10:L24"/>
+  <dimension ref="B13:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,201 +764,210 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" t="s">
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7">
+        <v>750</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7">
+        <v>900</v>
+      </c>
+      <c r="G18" s="6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7">
+        <v>450</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>385</v>
+      </c>
+      <c r="D20" s="8">
+        <v>330</v>
+      </c>
+      <c r="E20" s="9">
+        <v>275</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="16">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
         <v>750</v>
       </c>
-      <c r="G14" s="15">
-        <v>1300</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="16">
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
         <v>900</v>
       </c>
-      <c r="G15" s="15">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="16">
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
         <v>450</v>
       </c>
-      <c r="G16" s="15">
-        <v>5000</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="17">
-        <v>385</v>
-      </c>
-      <c r="D17" s="17">
-        <v>330</v>
-      </c>
-      <c r="E17" s="18">
-        <v>275</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="I17" t="s">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I18" t="s">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
